--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="10755"/>
   </bookViews>
   <sheets>
-    <sheet name="打刻一覧表（社員別）" sheetId="2" r:id="rId1"/>
+    <sheet name="帳票テンプレート" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -103,8 +103,6 @@
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
     <definedName name="PG田中" localSheetId="0">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'打刻一覧表（社員別）'!$A$2:$H$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'打刻一覧表（社員別）'!$1:$2</definedName>
     <definedName name="PrintDaicho" localSheetId="0">[7]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
     <definedName name="QuitDaicho" localSheetId="0">[7]!QuitDaicho</definedName>
@@ -234,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>年月日</t>
   </si>
@@ -267,65 +265,6 @@
   </si>
   <si>
     <t>深夜時間</t>
-  </si>
-  <si>
-    <t>&amp;=item.employee</t>
-  </si>
-  <si>
-    <t>&amp;=period</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.workplace</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.cardNo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.time</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.classification</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.mean</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.insLocation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.locationInfor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.supportCard</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.workingHour</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.overtimeHour</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&amp;=item.stampList.nightTime</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -382,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -451,28 +390,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -501,21 +418,21 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -43814,7 +43731,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -44100,40 +44017,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="2" customWidth="1"/>
     <col min="9" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -44170,30 +44085,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -44202,62 +44111,32 @@
       <c r="J4" s="7"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A3:K3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;=companyName
-&amp;C&amp;=title&amp;R&amp;D　&amp;T　
+    <oddHeader xml:space="preserve">&amp;R&amp;D　&amp;T　
 page&amp;P
 </oddHeader>
     <firstHeader>&amp;L日通システム株式会社&amp;Cアラームリスト(個人別)&amp;R2017/11/15  14:49:00

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -321,49 +321,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -379,7 +342,22 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -394,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -406,29 +384,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2181,7 +2156,7 @@
             <v>型番</v>
           </cell>
           <cell r="D2" t="str">
-            <v xml:space="preserve">製品名 </v>
+            <v>製品名</v>
           </cell>
           <cell r="E2" t="str">
             <v>仕様</v>
@@ -23762,7 +23737,7 @@
             <v>ACW-CD-S</v>
           </cell>
           <cell r="C140" t="str">
-            <v xml:space="preserve">M6754-5 </v>
+            <v>M6754-5</v>
           </cell>
           <cell r="D140" t="str">
             <v>内蔵CD-ROM装置</v>
@@ -40934,7 +40909,7 @@
             <v>1</v>
           </cell>
           <cell r="E170" t="str">
-            <v xml:space="preserve">'0':未処理、'1':仮処理、'2':本処理、'3':出力不要 </v>
+            <v>'0':未処理、'1':仮処理、'2':本処理、'3':出力不要</v>
           </cell>
         </row>
         <row r="171">
@@ -44020,7 +43995,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -44038,47 +44013,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -44086,42 +44061,42 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
   </sheetData>
@@ -44136,7 +44111,7 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;R&amp;D　&amp;T　
+    <oddHeader xml:space="preserve">&amp;L&amp;9header&amp;C&amp;"-,標準 Bold"&amp;16Title&amp;R&amp;9&amp;D　&amp;T　
 page&amp;P
 </oddHeader>
     <firstHeader>&amp;L日通システム株式会社&amp;Cアラームリスト(個人別)&amp;R2017/11/15  14:49:00

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -390,6 +390,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -398,12 +404,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -43994,8 +43994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -44013,47 +44013,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -44061,30 +44061,30 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -399,11 +399,11 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -43995,7 +43995,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -44008,22 +44008,22 @@
     <col min="7" max="7" width="16.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="2" customWidth="1"/>
     <col min="9" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -44061,17 +44061,17 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -271,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -399,15 +399,18 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -43706,7 +43709,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -43995,10 +43998,10 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
@@ -44012,20 +44015,20 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -44060,20 +44063,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -44086,9 +44089,9 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -271,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,11 +406,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -43709,7 +43709,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -43998,10 +43998,10 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
@@ -44015,7 +44015,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -44028,7 +44028,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -44063,7 +44063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -44076,7 +44076,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -44089,7 +44089,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="12"/>
       <c r="C5" s="6"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -321,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -368,6 +368,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -378,9 +420,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -390,23 +429,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -43998,7 +44040,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -44015,92 +44057,92 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="10755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="帳票テンプレート" sheetId="2" r:id="rId1"/>
@@ -271,11 +271,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -288,7 +288,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -432,12 +432,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -447,8 +441,14 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +473,12 @@
     <sheetNames>
       <sheetName val="１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ"/>
       <sheetName val="master"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -38431,6 +38433,7 @@
       <sheetName val="収印ﾓﾆﾀｰ"/>
       <sheetName val="収印ﾓﾆﾀｰ.XLS"/>
       <sheetName val="%E5%8F%8E%E5%8D%B0%EF%BE%93%EF%"/>
+      <sheetName val="JOB一覧表"/>
     </sheetNames>
     <definedNames>
       <definedName name="PrintDaicho"/>
@@ -38440,6 +38443,7 @@
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -38464,6 +38468,8 @@
     <sheetNames>
       <sheetName val="項目定義書"/>
       <sheetName val="テーブル設計991127"/>
+      <sheetName val="仕切価格"/>
+      <sheetName val="１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1">
@@ -43745,6 +43751,8 @@
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -44040,98 +44048,98 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="25275" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="帳票テンプレート" sheetId="2" r:id="rId1"/>
@@ -252,9 +252,6 @@
     <t>設置場所</t>
   </si>
   <si>
-    <t>位置情報</t>
-  </si>
-  <si>
     <t>応援カード</t>
   </si>
   <si>
@@ -265,6 +262,16 @@
   </si>
   <si>
     <t>深夜時間</t>
+  </si>
+  <si>
+    <t>打刻位置</t>
+    <rPh sb="0" eb="2">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -44047,21 +44054,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -44098,19 +44105,19 @@
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1">
@@ -44139,7 +44146,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -44153,11 +44160,12 @@
       <c r="K5" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:K4"/>
-    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -451,11 +451,11 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -44055,7 +44055,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -44073,17 +44073,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="7" t="s">
@@ -44121,17 +44121,17 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
       <c r="A4" s="10"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -44055,7 +44055,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -44146,7 +44146,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDP011-打刻一覧表_帳票レイアウト（社員別）.xlsx
@@ -455,7 +455,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -44055,7 +44055,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
